--- a/untranslated/downloads/data-excel/1.5.4.xlsx
+++ b/untranslated/downloads/data-excel/1.5.4.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="CL_NATURE">[1]VAL_CL_NATURE!$A$2:$B$8</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -43,135 +42,6 @@
   </si>
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
-  </si>
-  <si>
-    <t>_T</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>REF_AREA</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>PosType</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>DataStart</t>
-  </si>
-  <si>
-    <t>FREQ</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
-    <t>FIX</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>NumColumns</t>
-  </si>
-  <si>
-    <t>REPORTING_TYPE</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SERIES</t>
-  </si>
-  <si>
-    <t>COLUMN</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>TIME_PERIOD</t>
-  </si>
-  <si>
-    <t>ROW</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>URBANISATION</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>INCOME_WEALTH_QUANTILE</t>
-  </si>
-  <si>
-    <t>EDUCATION_LEV</t>
-  </si>
-  <si>
-    <t>OCCUPATION</t>
-  </si>
-  <si>
-    <t>CUST_BREAKDOWN</t>
-  </si>
-  <si>
-    <t>COMPOSITE_BREAKDOWN</t>
-  </si>
-  <si>
-    <t>DISABILITY_STATUS</t>
-  </si>
-  <si>
-    <t>NATURE</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SOURCE_DETAIL</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>COMMENT_OBS</t>
-  </si>
-  <si>
-    <t>UNIT_MEASURE</t>
-  </si>
-  <si>
-    <t>UNIT_MULT</t>
-  </si>
-  <si>
-    <t>OBS_STATUS</t>
-  </si>
-  <si>
-    <t>TIME_DETAIL</t>
-  </si>
-  <si>
-    <t>SI_POV_DAY1</t>
-  </si>
-  <si>
-    <t>E5</t>
   </si>
   <si>
     <t>1.5.4 Доля местных органов власти, принявших и осуществляющих местные стратегии снижения риска бедствий в соответствии с национальными стратегиями снижения риска бедствий</t>
@@ -196,9 +66,6 @@
   </si>
   <si>
     <t>1.5.4 Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies</t>
-  </si>
-  <si>
-    <t>484</t>
   </si>
   <si>
     <t>Жергиликтүү бийлик органдарынын саны</t>
@@ -423,7 +290,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,10 +316,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="18" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -8257,10 +8120,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8268,23 +8131,23 @@
     <col min="1" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="82.5" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>56</v>
+    <row r="1" spans="1:8" ht="82.5" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="15"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8296,416 +8159,99 @@
       <c r="D3" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>55</v>
+      <c r="E3" s="2">
+        <v>2020</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>47</v>
+      <c r="F3" s="2">
+        <v>2021</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>50</v>
+      <c r="G3" s="2">
+        <v>2022</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>54</v>
+      <c r="H3" s="2">
+        <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.25" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>57</v>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>484</v>
+      </c>
+      <c r="E4" s="12">
+        <v>484</v>
+      </c>
+      <c r="F4" s="12">
+        <v>484</v>
+      </c>
+      <c r="G4" s="12">
+        <v>484</v>
+      </c>
+      <c r="H4" s="12">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>10.12397</v>
       </c>
+      <c r="E5" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>21.5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>34.5</v>
+      </c>
+      <c r="H5" s="13">
+        <v>40.53</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1" thickBot="1">
-      <c r="A6" s="23" t="s">
-        <v>58</v>
+    <row r="6" spans="1:8" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
         <v>49</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>52</v>
+      <c r="E6" s="9">
+        <v>67</v>
       </c>
-      <c r="D6" s="13">
-        <v>49</v>
+      <c r="F6" s="9">
+        <v>104</v>
+      </c>
+      <c r="G6" s="9">
+        <v>167</v>
+      </c>
+      <c r="H6" s="9">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="12">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>